--- a/output/risk/KHM_osm_tc_CMCC-CM2-VHR4_risk.xlsx
+++ b/output/risk/KHM_osm_tc_CMCC-CM2-VHR4_risk.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:CG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,17 +438,422 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>W5_1</t>
+          <t>W5_1_1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>W5_2</t>
+          <t>W5_1_2</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>W5_3</t>
+          <t>W5_1_3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W5_1_12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_5</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_6</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_7</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_8</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_9</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_10</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_11</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>W5_2_12</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_5</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_6</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_7</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_8</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_9</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_10</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_11</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>W5_3_12</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_5</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_6</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_7</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_8</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_9</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_10</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_11</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>W5_4_12</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_5</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_6</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_7</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_8</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_9</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_10</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_11</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>W5_5_12</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_5</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_6</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_7</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_8</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_9</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_10</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_11</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>W5_6_12</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_5</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_6</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_7</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_8</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_9</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_10</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_11</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>W5_7_12</t>
         </is>
       </c>
     </row>
@@ -459,13 +864,256 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379135.659034269</v>
+        <v>3958687.66182172</v>
       </c>
       <c r="C2" t="n">
-        <v>478777.882896081</v>
+        <v>4354556.42800389</v>
       </c>
       <c r="D2" t="n">
-        <v>406781.1517992065</v>
+        <v>5146293.960368236</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6452660.888769404</v>
+      </c>
+      <c r="F2" t="n">
+        <v>7097934.050941749</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8388456.79763509</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2652320.733420552</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2917545.733467202</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3448019.311211853</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4323292.462312553</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4755612.27748327</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5620275.485476049</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2979703.855729804</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3277674.241302785</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3873615.012448745</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4856917.284839581</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5342614.337392369</v>
+      </c>
+      <c r="S2" t="n">
+        <v>6313990.695601844</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1996401.583338969</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2196036.417604034</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2595323.833030269</v>
+      </c>
+      <c r="W2" t="n">
+        <v>3254141.857069921</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3579548.944018472</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4230380.864811677</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>389652.5153109716</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>428617.7668420686</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>506548.2699042631</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>635133.5999568837</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>698647.6561750533</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>825673.4478697884</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>261067.185258351</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>287173.2075617049</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>339387.5729100166</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>425540.4634751697</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>468093.5815260451</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>553202.1383693998</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>4135200.643698239</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>4548720.708068063</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>5375760.83680771</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>6740377.049228129</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>7414422.142835832</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>8762487.701101605</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>2770584.43127782</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>3047635.485720712</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>3601762.223556129</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>4516062.720852196</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>4967659.141357563</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>5870876.611317929</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>8230037.113939962</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>9053040.825333958</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>10699048.24812195</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>13414960.49572214</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>14756471.25054232</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>17439443.74268946</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>5514124.866339775</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>6065522.647725782</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>7168367.22799103</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>8988043.629306057</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>9886828.38523937</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>11684446.91459923</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>9143013.98733018</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>10057315.3860632</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>11885918.18352923</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>14903112.79934819</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>16393440.41581783</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>19374041.19364104</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>6125819.371511219</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>6738384.972127521</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>7963570.62847619</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>9985107.902160874</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>10983596.91033054</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>12980629.38178592</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>9189716.3764522</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>10108688.01409742</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>11946631.28938786</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>14979237.69361709</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>16477177.88296041</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>19473003.52837501</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>6157109.972222975</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>6772804.549463659</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>8004248.437217071</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>10036111.69536499</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>11039700.97159267</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>13046934.25732007</v>
       </c>
     </row>
     <row r="3">
@@ -475,13 +1123,256 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>284351.7442757018</v>
+        <v>2969015.74636629</v>
       </c>
       <c r="C3" t="n">
-        <v>359083.4121720607</v>
+        <v>3265917.321002919</v>
       </c>
       <c r="D3" t="n">
-        <v>305085.8638494049</v>
+        <v>3859720.470276176</v>
+      </c>
+      <c r="E3" t="n">
+        <v>4839495.666577052</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5323450.538206312</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6291342.598226317</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1989240.550065414</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2188159.300100402</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2586014.48340889</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3242469.346734416</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3566709.208112451</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4215206.614107037</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2234777.891797354</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2458255.680977088</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2905211.259336559</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3642687.963629685</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4006960.753044277</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4735493.021701382</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1497301.187504226</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1647027.313203026</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1946492.874772702</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2440606.392802441</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2684661.708013854</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3172785.648608758</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>292239.3864832287</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>321463.3251315516</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>379911.2024281973</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>476350.1999676627</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>523985.74213129</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>619255.0859023412</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>195800.3889437632</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>215379.9056712787</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>254540.6796825125</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>319155.3476063773</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>351070.1861445339</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>414901.6037770499</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>3101400.48277368</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>3411540.531051047</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4031820.627605783</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>5055282.786921097</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>5560816.607126874</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>6571865.775826203</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>2077938.323458365</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2285726.614290534</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2701321.667667097</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>3387047.040639148</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>3725744.356018172</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4403157.458488448</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>6172527.835454972</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>6789780.619000468</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>8024286.186091463</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>10061220.3717916</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>11067353.43790674</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>13079582.80701709</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>4135593.649754831</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>4549141.985794337</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>5376275.420993272</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>6741032.721979544</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>7415121.288929528</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>8763335.185949422</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>6857260.490497636</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>7542986.539547398</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>8914438.637646925</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>11177334.59951114</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>12295080.31186337</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>14530530.89523078</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>4594364.528633415</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>5053788.729095642</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>5972677.971357143</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>7488830.926620656</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>8237697.682747902</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>9735472.036339443</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>6892287.282339152</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>7581516.010573067</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>8959973.467040896</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>11234428.27021281</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>12357883.41222031</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>14604752.64628126</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>4617832.47916723</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>5079603.412097744</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>6003186.327912803</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>7527083.771523741</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>8279775.728694501</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>9785200.692990057</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +1382,256 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473919.5737928363</v>
+        <v>4948359.57727715</v>
       </c>
       <c r="C4" t="n">
-        <v>598472.3536201012</v>
+        <v>5443195.535004865</v>
       </c>
       <c r="D4" t="n">
-        <v>508476.4397490082</v>
+        <v>6432867.450460295</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8065826.110961756</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8872417.563677186</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10485570.99704386</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3315400.91677569</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3646932.166834003</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4310024.139014816</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5404115.577890692</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5944515.346854085</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7025344.356845062</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3724629.819662255</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4097092.801628481</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4842018.765560932</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6071146.606049476</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6678267.921740463</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7892488.369502308</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2495501.979173712</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2745045.522005043</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3244154.791287837</v>
+      </c>
+      <c r="W4" t="n">
+        <v>4067677.321337402</v>
+      </c>
+      <c r="X4" t="n">
+        <v>4474436.18002309</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>5287976.081014597</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>487065.6441387145</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>535772.2085525859</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>633185.3373803289</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>793916.9999461048</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>873309.5702188166</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1032091.809837236</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>326333.9815729388</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>358966.5094521311</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>424234.4661375209</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>531925.5793439621</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>585116.9769075563</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>691502.6729617498</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>5169000.804622799</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>5685900.885085079</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6719701.046009639</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>8425471.311535163</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>9268027.678544791</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>10953109.62637701</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>3463230.539097276</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>3809544.357150889</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4502202.779445162</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>5645078.401065247</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>6209573.926696953</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7338595.764147412</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>10287546.39242495</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>11316301.03166745</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>13373810.31015244</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>16768700.61965268</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>18445589.0631779</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>21799304.67836183</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>6892656.08292472</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>7581903.309657228</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>8960459.034988789</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>11235054.53663257</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>12358535.48154921</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>14605558.64324904</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>11428767.48416273</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>12571644.232579</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>14857397.72941154</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>18628890.99918525</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>20491800.51977229</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>24217551.4920513</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>7657274.214389026</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>8422981.215159403</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>9954463.28559524</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>12481384.87770109</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>13729496.13791317</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>16225786.72723241</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>11487145.47056525</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>12635860.01762178</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>14933289.11173483</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>18724047.11702137</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>20596472.35370051</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>24341254.41046876</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>7696387.46527872</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>8466005.686829573</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>10005310.54652134</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>12545139.61920623</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>13799626.21449083</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>16308667.8216501</v>
       </c>
     </row>
   </sheetData>
@@ -511,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,25 +1766,30 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>W3_23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W3_24</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>W3_25</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>W3_26</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>W3_27</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>W3_28</t>
         </is>
@@ -663,85 +1802,88 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>8.115974064531981e-255</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>6.717262393381942e-15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.225721593186529</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>59695.04139544895</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1530.401031946169</v>
       </c>
       <c r="G2" t="n">
-        <v>8050.348212513203</v>
+        <v>58838.58829632821</v>
       </c>
       <c r="H2" t="n">
-        <v>26633402.58171616</v>
+        <v>63145.51740324597</v>
       </c>
       <c r="I2" t="n">
-        <v>125666502.993764</v>
+        <v>54972.71733609651</v>
       </c>
       <c r="J2" t="n">
-        <v>178868070.3520588</v>
+        <v>39124.35669833993</v>
       </c>
       <c r="K2" t="n">
-        <v>266852136.90365</v>
+        <v>22909.19588173491</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>398773.9458529864</v>
       </c>
       <c r="M2" t="n">
-        <v>758470.7105521025</v>
+        <v>811721.8383757743</v>
       </c>
       <c r="N2" t="n">
-        <v>1771206.741281992</v>
+        <v>847975.4350558831</v>
       </c>
       <c r="O2" t="n">
-        <v>-647298.4466570006</v>
+        <v>81096.64938921951</v>
       </c>
       <c r="P2" t="n">
-        <v>-647298.4466570006</v>
+        <v>217922.3327932892</v>
       </c>
       <c r="Q2" t="n">
-        <v>-7.956250347626075e-07</v>
+        <v>21376.21331208844</v>
       </c>
       <c r="R2" t="n">
-        <v>34008183.89643426</v>
+        <v>1148469.103080917</v>
       </c>
       <c r="S2" t="n">
-        <v>12372202.16049731</v>
+        <v>1130221.963352374</v>
       </c>
       <c r="T2" t="n">
-        <v>2598211.657641087</v>
+        <v>1059993.580198081</v>
       </c>
       <c r="U2" t="n">
-        <v>2592103.308415207</v>
+        <v>939693.6227744503</v>
       </c>
       <c r="V2" t="n">
-        <v>-473266.9418965442</v>
+        <v>787870.6723847346</v>
       </c>
       <c r="W2" t="n">
-        <v>656141.5253995334</v>
+        <v>611426.3798903283</v>
       </c>
       <c r="X2" t="n">
-        <v>113906.3168836146</v>
+        <v>447634.1309565675</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>306233.2018808572</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>217584.0525160516</v>
       </c>
       <c r="AA2" t="n">
-        <v>741134.9994473258</v>
+        <v>149495.5026287282</v>
       </c>
       <c r="AB2" t="n">
-        <v>654150.1402929267</v>
+        <v>3998.005978177486</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>17392.44619972273</v>
       </c>
     </row>
     <row r="3">
@@ -751,85 +1893,88 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>6.086980548398985e-255</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.037946795036456e-15</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.9192911948898965</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>44771.28104658672</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1147.800773959627</v>
       </c>
       <c r="G3" t="n">
-        <v>6037.761159384903</v>
+        <v>44128.94122224615</v>
       </c>
       <c r="H3" t="n">
-        <v>19975051.93628713</v>
+        <v>47359.13805243448</v>
       </c>
       <c r="I3" t="n">
-        <v>94249877.24532302</v>
+        <v>41229.53800207238</v>
       </c>
       <c r="J3" t="n">
-        <v>134151052.7640441</v>
+        <v>29343.26752375494</v>
       </c>
       <c r="K3" t="n">
-        <v>200139102.6777374</v>
+        <v>17181.89691130118</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>299080.4593897397</v>
       </c>
       <c r="M3" t="n">
-        <v>568853.0329140772</v>
+        <v>608791.3787818307</v>
       </c>
       <c r="N3" t="n">
-        <v>1328405.055961495</v>
+        <v>635981.5762919122</v>
       </c>
       <c r="O3" t="n">
-        <v>-485473.8349927508</v>
+        <v>60822.48704191464</v>
       </c>
       <c r="P3" t="n">
-        <v>-485473.8349927508</v>
+        <v>163441.7495949669</v>
       </c>
       <c r="Q3" t="n">
-        <v>-5.967187760719557e-07</v>
+        <v>16032.15998406633</v>
       </c>
       <c r="R3" t="n">
-        <v>25506137.9223257</v>
+        <v>861351.8273106874</v>
       </c>
       <c r="S3" t="n">
-        <v>9279151.620372979</v>
+        <v>847666.4725142801</v>
       </c>
       <c r="T3" t="n">
-        <v>1948658.743230819</v>
+        <v>794995.1851485603</v>
       </c>
       <c r="U3" t="n">
-        <v>1944077.481311405</v>
+        <v>704770.2170808377</v>
       </c>
       <c r="V3" t="n">
-        <v>-354950.2064224078</v>
+        <v>590903.0042885509</v>
       </c>
       <c r="W3" t="n">
-        <v>492106.1440496501</v>
+        <v>458569.7849177463</v>
       </c>
       <c r="X3" t="n">
-        <v>85429.73766271095</v>
+        <v>335725.5982174255</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>229674.9014106428</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>163188.0393870386</v>
       </c>
       <c r="AA3" t="n">
-        <v>555851.2495854949</v>
+        <v>112121.6269715462</v>
       </c>
       <c r="AB3" t="n">
-        <v>490612.6052196953</v>
+        <v>2998.504483633114</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>13044.33464979204</v>
       </c>
     </row>
     <row r="4">
@@ -839,85 +1984,88 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1.014496758066498e-254</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8.396577991727429e-15</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.532151991483161</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>74618.8017443112</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1913.001289932712</v>
       </c>
       <c r="G4" t="n">
-        <v>10062.93526564151</v>
+        <v>73548.23537041027</v>
       </c>
       <c r="H4" t="n">
-        <v>33291753.22714521</v>
+        <v>78931.89675405748</v>
       </c>
       <c r="I4" t="n">
-        <v>157083128.742205</v>
+        <v>68715.89667012065</v>
       </c>
       <c r="J4" t="n">
-        <v>223585087.9400736</v>
+        <v>48905.44587292492</v>
       </c>
       <c r="K4" t="n">
-        <v>333565171.1295624</v>
+        <v>28636.49485216864</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>498467.4323162331</v>
       </c>
       <c r="M4" t="n">
-        <v>948088.3881901288</v>
+        <v>1014652.297969718</v>
       </c>
       <c r="N4" t="n">
-        <v>2214008.426602491</v>
+        <v>1059969.293819854</v>
       </c>
       <c r="O4" t="n">
-        <v>-809123.058321252</v>
+        <v>101370.8117365244</v>
       </c>
       <c r="P4" t="n">
-        <v>-809123.058321252</v>
+        <v>272402.9159916115</v>
       </c>
       <c r="Q4" t="n">
-        <v>-9.945312934532595e-07</v>
+        <v>26720.26664011056</v>
       </c>
       <c r="R4" t="n">
-        <v>42510229.87054284</v>
+        <v>1435586.378851146</v>
       </c>
       <c r="S4" t="n">
-        <v>15465252.70062163</v>
+        <v>1412777.454190467</v>
       </c>
       <c r="T4" t="n">
-        <v>3247764.572051364</v>
+        <v>1324991.975247601</v>
       </c>
       <c r="U4" t="n">
-        <v>3240129.135519009</v>
+        <v>1174617.028468063</v>
       </c>
       <c r="V4" t="n">
-        <v>-591583.677370679</v>
+        <v>984838.3404809183</v>
       </c>
       <c r="W4" t="n">
-        <v>820176.9067494166</v>
+        <v>764282.9748629106</v>
       </c>
       <c r="X4" t="n">
-        <v>142382.8961045183</v>
+        <v>559542.6636957094</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>382791.5023510715</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>271980.0656450645</v>
       </c>
       <c r="AA4" t="n">
-        <v>926418.7493091559</v>
+        <v>186869.3782859103</v>
       </c>
       <c r="AB4" t="n">
-        <v>817687.6753661591</v>
+        <v>4997.507472721858</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>21740.55774965341</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +2079,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1215,6 +2363,11 @@
           <t>W4_55</t>
         </is>
       </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>W4_56</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1223,169 +2376,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>694.1804983211468</v>
+        <v>0.9482970457740594</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.007881365041376284</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6470802716850583</v>
+        <v>0.0673706933370247</v>
       </c>
       <c r="E2" t="n">
-        <v>673.4369035897649</v>
+        <v>0.6855253380275547</v>
       </c>
       <c r="F2" t="n">
-        <v>150.17701932121</v>
+        <v>13.77510141493591</v>
       </c>
       <c r="G2" t="n">
-        <v>220.4398498752324</v>
+        <v>27.32150677671026</v>
       </c>
       <c r="H2" t="n">
-        <v>1.941240815055176</v>
+        <v>15.02671385036167</v>
       </c>
       <c r="I2" t="n">
-        <v>26.31459771519239</v>
+        <v>29.72912624217783</v>
       </c>
       <c r="J2" t="n">
-        <v>481.8981933329449</v>
+        <v>28.09848561458881</v>
       </c>
       <c r="K2" t="n">
-        <v>497.8450862864025</v>
+        <v>22.90259751863727</v>
       </c>
       <c r="L2" t="n">
-        <v>22200.05810428777</v>
+        <v>164.0306229449845</v>
       </c>
       <c r="M2" t="n">
-        <v>2432.933301045837</v>
+        <v>85.69475404078209</v>
       </c>
       <c r="N2" t="n">
-        <v>6972.549307557573</v>
+        <v>63.65628649123029</v>
       </c>
       <c r="O2" t="n">
-        <v>166152.282348899</v>
+        <v>460.4226829743275</v>
       </c>
       <c r="P2" t="n">
-        <v>3006.30128461652</v>
+        <v>96.62728257718132</v>
       </c>
       <c r="Q2" t="n">
-        <v>-62.36287762214825</v>
+        <v>33.67487387214096</v>
       </c>
       <c r="R2" t="n">
-        <v>1562.411657347662</v>
+        <v>46.92563243719115</v>
       </c>
       <c r="S2" t="n">
-        <v>3566.549881928147</v>
+        <v>76.79218261168764</v>
       </c>
       <c r="T2" t="n">
-        <v>11587.43008423223</v>
+        <v>152.3872347611133</v>
       </c>
       <c r="U2" t="n">
-        <v>600.620409614047</v>
+        <v>45.52412773345053</v>
       </c>
       <c r="V2" t="n">
-        <v>859.2413727363696</v>
+        <v>49.12601867214881</v>
       </c>
       <c r="W2" t="n">
-        <v>4038.349661667827</v>
+        <v>90.57824571636813</v>
       </c>
       <c r="X2" t="n">
-        <v>19180.85447793553</v>
+        <v>164.8177742841875</v>
       </c>
       <c r="Y2" t="n">
-        <v>81.64786696696228</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="Z2" t="n">
-        <v>177.7857775797725</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AA2" t="n">
-        <v>1623.764819586871</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AB2" t="n">
-        <v>1636.706425020572</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AC2" t="n">
-        <v>17815.95230463774</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AD2" t="n">
-        <v>37396.60469687509</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AE2" t="n">
-        <v>58149.94949934156</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AF2" t="n">
-        <v>72927.91952708436</v>
+        <v>229.2626954032814</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1.288090619970384</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.422764303855492</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>4.279439153260347</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17800.64152331065</v>
+        <v>73.08649713651383</v>
       </c>
       <c r="AK2" t="n">
-        <v>73126.14890346905</v>
+        <v>252.0369999084424</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>6.948198558141751</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>7.885487208139963</v>
       </c>
       <c r="AN2" t="n">
-        <v>879.7178892259641</v>
+        <v>20.79985980410855</v>
       </c>
       <c r="AO2" t="n">
-        <v>45799.40536165007</v>
+        <v>148.583155815154</v>
       </c>
       <c r="AP2" t="n">
-        <v>84963.82415825812</v>
+        <v>330.5456726397175</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-326.0594780434378</v>
+        <v>6.696578969326369</v>
       </c>
       <c r="AR2" t="n">
-        <v>1473.759615192843</v>
+        <v>22.00292429935115</v>
       </c>
       <c r="AS2" t="n">
-        <v>576.3339440499417</v>
+        <v>2.468394797356096</v>
       </c>
       <c r="AT2" t="n">
-        <v>409.5179922641012</v>
+        <v>6.380234771978316</v>
       </c>
       <c r="AU2" t="n">
-        <v>417.9550569316867</v>
+        <v>4.664996528944308</v>
       </c>
       <c r="AV2" t="n">
-        <v>652.5523082948639</v>
+        <v>10.22724051567752</v>
       </c>
       <c r="AW2" t="n">
-        <v>34.48212309834538</v>
+        <v>3.217950414865454</v>
       </c>
       <c r="AX2" t="n">
-        <v>89.69754251300037</v>
+        <v>4.759252860798044</v>
       </c>
       <c r="AY2" t="n">
-        <v>193.245135065096</v>
+        <v>7.087065163987063</v>
       </c>
       <c r="AZ2" t="n">
-        <v>226801.367300292</v>
+        <v>511.8375220660125</v>
       </c>
       <c r="BA2" t="n">
-        <v>-54869.76360780945</v>
+        <v>512.4534516954541</v>
       </c>
       <c r="BB2" t="n">
-        <v>82702.44240971419</v>
+        <v>510.1950430541682</v>
       </c>
       <c r="BC2" t="n">
-        <v>144569.0262898382</v>
+        <v>511.0676100292105</v>
       </c>
       <c r="BD2" t="n">
-        <v>94223.06584812369</v>
+        <v>512.1968143498535</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>6.282464768649167</v>
       </c>
     </row>
     <row r="3">
@@ -1395,169 +2551,172 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>520.6353737408599</v>
+        <v>0.7112227843305445</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.005911023781032212</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4853102037637939</v>
+        <v>0.05052802000276852</v>
       </c>
       <c r="E3" t="n">
-        <v>505.0776776923238</v>
+        <v>0.5141440035206661</v>
       </c>
       <c r="F3" t="n">
-        <v>112.6327644909075</v>
+        <v>10.33132606120193</v>
       </c>
       <c r="G3" t="n">
-        <v>165.3298874064242</v>
+        <v>20.49113008253269</v>
       </c>
       <c r="H3" t="n">
-        <v>1.455930611291381</v>
+        <v>11.27003538777125</v>
       </c>
       <c r="I3" t="n">
-        <v>19.73594828639428</v>
+        <v>22.29684468163337</v>
       </c>
       <c r="J3" t="n">
-        <v>361.4236449997086</v>
+        <v>21.0738642109416</v>
       </c>
       <c r="K3" t="n">
-        <v>373.3838147148018</v>
+        <v>17.17694813897795</v>
       </c>
       <c r="L3" t="n">
-        <v>16650.04357821583</v>
+        <v>123.0229672087384</v>
       </c>
       <c r="M3" t="n">
-        <v>1824.699975784377</v>
+        <v>64.27106553058655</v>
       </c>
       <c r="N3" t="n">
-        <v>5229.411980668179</v>
+        <v>47.74221486842272</v>
       </c>
       <c r="O3" t="n">
-        <v>124614.2117616741</v>
+        <v>345.3170122307457</v>
       </c>
       <c r="P3" t="n">
-        <v>2254.72596346239</v>
+        <v>72.47046193288595</v>
       </c>
       <c r="Q3" t="n">
-        <v>-46.77215821661122</v>
+        <v>25.25615540410573</v>
       </c>
       <c r="R3" t="n">
-        <v>1171.808743010746</v>
+        <v>35.19422432789337</v>
       </c>
       <c r="S3" t="n">
-        <v>2674.912411446109</v>
+        <v>57.59413695876573</v>
       </c>
       <c r="T3" t="n">
-        <v>8690.572563174177</v>
+        <v>114.290426070835</v>
       </c>
       <c r="U3" t="n">
-        <v>450.4653072105356</v>
+        <v>34.14309580008791</v>
       </c>
       <c r="V3" t="n">
-        <v>644.4310295522771</v>
+        <v>36.8445140041116</v>
       </c>
       <c r="W3" t="n">
-        <v>3028.762246250871</v>
+        <v>67.93368428727611</v>
       </c>
       <c r="X3" t="n">
-        <v>14385.64085845166</v>
+        <v>123.6133307131406</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.23590022522168</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="Z3" t="n">
-        <v>133.3393331848293</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AA3" t="n">
-        <v>1217.823614690154</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AB3" t="n">
-        <v>1227.52981876543</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AC3" t="n">
-        <v>13361.96422847831</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AD3" t="n">
-        <v>28047.4535226563</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AE3" t="n">
-        <v>43612.46212450616</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AF3" t="n">
-        <v>54695.93964531325</v>
+        <v>171.9470215524611</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>0.966067964977788</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.067073227891619</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.20957936494526</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13350.48114248299</v>
+        <v>54.81487285238537</v>
       </c>
       <c r="AK3" t="n">
-        <v>54844.61167760176</v>
+        <v>189.0277499313318</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>5.211148918606312</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>5.914115406104973</v>
       </c>
       <c r="AN3" t="n">
-        <v>659.7884169194732</v>
+        <v>15.59989485308142</v>
       </c>
       <c r="AO3" t="n">
-        <v>34349.55402123756</v>
+        <v>111.4373668613655</v>
       </c>
       <c r="AP3" t="n">
-        <v>63722.86811869348</v>
+        <v>247.9092544797881</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-244.5446085325796</v>
+        <v>5.022434226994776</v>
       </c>
       <c r="AR3" t="n">
-        <v>1105.319711394629</v>
+        <v>16.50219322451337</v>
       </c>
       <c r="AS3" t="n">
-        <v>432.2504580374562</v>
+        <v>1.851296098017072</v>
       </c>
       <c r="AT3" t="n">
-        <v>307.1384941980763</v>
+        <v>4.785176078983737</v>
       </c>
       <c r="AU3" t="n">
-        <v>313.4662926987644</v>
+        <v>3.498747396708231</v>
       </c>
       <c r="AV3" t="n">
-        <v>489.4142312211468</v>
+        <v>7.670430386758136</v>
       </c>
       <c r="AW3" t="n">
-        <v>25.86159232375903</v>
+        <v>2.413462811149091</v>
       </c>
       <c r="AX3" t="n">
-        <v>67.27315688475025</v>
+        <v>3.569439645598532</v>
       </c>
       <c r="AY3" t="n">
-        <v>144.933851298822</v>
+        <v>5.315298872990298</v>
       </c>
       <c r="AZ3" t="n">
-        <v>170101.0254752191</v>
+        <v>383.8781415495094</v>
       </c>
       <c r="BA3" t="n">
-        <v>-41152.32270585696</v>
+        <v>384.3400887715907</v>
       </c>
       <c r="BB3" t="n">
-        <v>62026.8318072858</v>
+        <v>382.6462822906261</v>
       </c>
       <c r="BC3" t="n">
-        <v>108426.7697173786</v>
+        <v>383.3007075219078</v>
       </c>
       <c r="BD3" t="n">
-        <v>70667.29938609262</v>
+        <v>384.1476107623902</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>4.711848576486876</v>
       </c>
     </row>
     <row r="4">
@@ -1567,169 +2726,172 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>867.7256229014332</v>
+        <v>1.185371307217574</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.009851706301720352</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8088503396063234</v>
+        <v>0.08421336667128085</v>
       </c>
       <c r="E4" t="n">
-        <v>841.7961294872067</v>
+        <v>0.8569066725344431</v>
       </c>
       <c r="F4" t="n">
-        <v>187.7212741515125</v>
+        <v>17.21887676866988</v>
       </c>
       <c r="G4" t="n">
-        <v>275.5498123440404</v>
+        <v>34.15188347088782</v>
       </c>
       <c r="H4" t="n">
-        <v>2.426551018818969</v>
+        <v>18.78339231295207</v>
       </c>
       <c r="I4" t="n">
-        <v>32.89324714399048</v>
+        <v>37.16140780272227</v>
       </c>
       <c r="J4" t="n">
-        <v>602.3727416661809</v>
+        <v>35.12310701823601</v>
       </c>
       <c r="K4" t="n">
-        <v>622.3063578580031</v>
+        <v>28.62824689829658</v>
       </c>
       <c r="L4" t="n">
-        <v>27750.07263035972</v>
+        <v>205.0382786812306</v>
       </c>
       <c r="M4" t="n">
-        <v>3041.166626307295</v>
+        <v>107.1184425509776</v>
       </c>
       <c r="N4" t="n">
-        <v>8715.686634446971</v>
+        <v>79.57035811403784</v>
       </c>
       <c r="O4" t="n">
-        <v>207690.3529361238</v>
+        <v>575.5283537179093</v>
       </c>
       <c r="P4" t="n">
-        <v>3757.876605770649</v>
+        <v>120.7841032214766</v>
       </c>
       <c r="Q4" t="n">
-        <v>-77.95359702768562</v>
+        <v>42.09359234017619</v>
       </c>
       <c r="R4" t="n">
-        <v>1953.014571684578</v>
+        <v>58.65704054648893</v>
       </c>
       <c r="S4" t="n">
-        <v>4458.187352410181</v>
+        <v>95.99022826460953</v>
       </c>
       <c r="T4" t="n">
-        <v>14484.28760529028</v>
+        <v>190.4840434513917</v>
       </c>
       <c r="U4" t="n">
-        <v>750.775512017558</v>
+        <v>56.90515966681316</v>
       </c>
       <c r="V4" t="n">
-        <v>1074.051715920464</v>
+        <v>61.40752334018598</v>
       </c>
       <c r="W4" t="n">
-        <v>5047.937077084784</v>
+        <v>113.2228071454601</v>
       </c>
       <c r="X4" t="n">
-        <v>23976.06809741942</v>
+        <v>206.0222178552343</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.0598337087028</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="Z4" t="n">
-        <v>222.2322219747156</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AA4" t="n">
-        <v>2029.70602448359</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AB4" t="n">
-        <v>2045.883031275717</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AC4" t="n">
-        <v>22269.94038079718</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AD4" t="n">
-        <v>46745.75587109385</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AE4" t="n">
-        <v>72687.43687417694</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AF4" t="n">
-        <v>91159.89940885545</v>
+        <v>286.5783692541017</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1.610113274962979</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.778455379819364</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>5.349298941575433</v>
       </c>
       <c r="AJ4" t="n">
-        <v>22250.80190413831</v>
+        <v>91.35812142064225</v>
       </c>
       <c r="AK4" t="n">
-        <v>91407.68612933635</v>
+        <v>315.0462498855529</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>8.685248197677186</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>9.856859010174951</v>
       </c>
       <c r="AN4" t="n">
-        <v>1099.647361532456</v>
+        <v>25.99982475513569</v>
       </c>
       <c r="AO4" t="n">
-        <v>57249.25670206259</v>
+        <v>185.7289447689425</v>
       </c>
       <c r="AP4" t="n">
-        <v>106204.7801978225</v>
+        <v>413.1820907996467</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-407.5743475542979</v>
+        <v>8.370723711657959</v>
       </c>
       <c r="AR4" t="n">
-        <v>1842.199518991052</v>
+        <v>27.50365537418894</v>
       </c>
       <c r="AS4" t="n">
-        <v>720.417430062427</v>
+        <v>3.085493496695119</v>
       </c>
       <c r="AT4" t="n">
-        <v>511.897490330127</v>
+        <v>7.975293464972891</v>
       </c>
       <c r="AU4" t="n">
-        <v>522.4438211646075</v>
+        <v>5.831245661180383</v>
       </c>
       <c r="AV4" t="n">
-        <v>815.69038536858</v>
+        <v>12.78405064459689</v>
       </c>
       <c r="AW4" t="n">
-        <v>43.10265387293174</v>
+        <v>4.022438018581817</v>
       </c>
       <c r="AX4" t="n">
-        <v>112.1219281412504</v>
+        <v>5.949066075997553</v>
       </c>
       <c r="AY4" t="n">
-        <v>241.55641883137</v>
+        <v>8.858831454983827</v>
       </c>
       <c r="AZ4" t="n">
-        <v>283501.7091253652</v>
+        <v>639.7969025825155</v>
       </c>
       <c r="BA4" t="n">
-        <v>-68587.20450976166</v>
+        <v>640.5668146193175</v>
       </c>
       <c r="BB4" t="n">
-        <v>103378.0530121429</v>
+        <v>637.7438038177102</v>
       </c>
       <c r="BC4" t="n">
-        <v>180711.282862298</v>
+        <v>638.834512536513</v>
       </c>
       <c r="BD4" t="n">
-        <v>117778.8323101546</v>
+        <v>640.2460179373168</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>7.853080960811457</v>
       </c>
     </row>
   </sheetData>
